--- a/Code/Results/Cases/Case_0_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_177/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.413886040318827</v>
+        <v>13.13570827151786</v>
       </c>
       <c r="D2">
-        <v>4.90758382867315</v>
+        <v>4.909754846414764</v>
       </c>
       <c r="E2">
-        <v>7.55036169465855</v>
+        <v>13.38319263054961</v>
       </c>
       <c r="F2">
-        <v>64.980070368356</v>
+        <v>66.36719626318437</v>
       </c>
       <c r="G2">
-        <v>100.6439002833043</v>
+        <v>91.92550057054049</v>
       </c>
       <c r="H2">
-        <v>25.51813701990821</v>
+        <v>29.17965981741665</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.329846626055595</v>
+        <v>12.35636330501269</v>
       </c>
       <c r="L2">
-        <v>4.826415582346464</v>
+        <v>9.292654946415571</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.057569039140979</v>
+        <v>13.13568159928616</v>
       </c>
       <c r="D3">
-        <v>4.633845191022774</v>
+        <v>4.839045006994406</v>
       </c>
       <c r="E3">
-        <v>7.515856033361884</v>
+        <v>13.41966388238335</v>
       </c>
       <c r="F3">
-        <v>60.93919722381305</v>
+        <v>65.86153012665204</v>
       </c>
       <c r="G3">
-        <v>93.83802596577708</v>
+        <v>90.82479694943703</v>
       </c>
       <c r="H3">
-        <v>24.10743562533193</v>
+        <v>29.05688509001493</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.230695139802607</v>
+        <v>12.38562875396487</v>
       </c>
       <c r="L3">
-        <v>4.894482998165811</v>
+        <v>9.317239672224838</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.848259652385181</v>
+        <v>13.13886024888697</v>
       </c>
       <c r="D4">
-        <v>4.464762506984147</v>
+        <v>4.79452684284883</v>
       </c>
       <c r="E4">
-        <v>7.501634515088547</v>
+        <v>13.44419776024427</v>
       </c>
       <c r="F4">
-        <v>58.46767457229943</v>
+        <v>65.5711721464409</v>
       </c>
       <c r="G4">
-        <v>89.64174717242079</v>
+        <v>90.17573754448107</v>
       </c>
       <c r="H4">
-        <v>23.25409030464421</v>
+        <v>28.99000105951731</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.178173799375378</v>
+        <v>12.40586554833595</v>
       </c>
       <c r="L4">
-        <v>4.936760823662154</v>
+        <v>9.333154588727014</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8.765150781141568</v>
+        <v>13.14095568644042</v>
       </c>
       <c r="D5">
-        <v>4.395451029736344</v>
+        <v>4.77611377361212</v>
       </c>
       <c r="E5">
-        <v>7.49745213628379</v>
+        <v>13.45473318117157</v>
       </c>
       <c r="F5">
-        <v>57.46165899949018</v>
+        <v>65.45798041088217</v>
       </c>
       <c r="G5">
-        <v>87.92507792233074</v>
+        <v>89.91822218555492</v>
       </c>
       <c r="H5">
-        <v>22.90909464273144</v>
+        <v>28.96488851197993</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.158688462589578</v>
+        <v>12.41468085812786</v>
       </c>
       <c r="L5">
-        <v>4.95415774078365</v>
+        <v>9.339847152604168</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8.751477929198458</v>
+        <v>13.14135185321533</v>
       </c>
       <c r="D6">
-        <v>4.383913442459717</v>
+        <v>4.773040062193575</v>
       </c>
       <c r="E6">
-        <v>7.496851415325313</v>
+        <v>13.45651503773448</v>
       </c>
       <c r="F6">
-        <v>57.29465586502865</v>
+        <v>65.43949682095412</v>
       </c>
       <c r="G6">
-        <v>87.63957897928648</v>
+        <v>89.8758905371086</v>
       </c>
       <c r="H6">
-        <v>22.85196476025668</v>
+        <v>28.96084815066814</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.155563888101815</v>
+        <v>12.41617893244471</v>
       </c>
       <c r="L6">
-        <v>4.957057864919889</v>
+        <v>9.340970984604349</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.847130184674185</v>
+        <v>13.13888527368342</v>
       </c>
       <c r="D7">
-        <v>4.4638295795336</v>
+        <v>4.794279609809278</v>
       </c>
       <c r="E7">
-        <v>7.501571747019985</v>
+        <v>13.44433766832111</v>
       </c>
       <c r="F7">
-        <v>58.45410362824946</v>
+        <v>65.56962473912996</v>
       </c>
       <c r="G7">
-        <v>89.61862470456317</v>
+        <v>90.17223601880026</v>
       </c>
       <c r="H7">
-        <v>23.24942690549942</v>
+        <v>28.98965369949078</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.177903472379815</v>
+        <v>12.40598213431083</v>
       </c>
       <c r="L7">
-        <v>4.936994707169529</v>
+        <v>9.333244007138218</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.288926572705101</v>
+        <v>13.13503406620736</v>
       </c>
       <c r="D8">
-        <v>4.813299370748844</v>
+        <v>4.885606090086728</v>
       </c>
       <c r="E8">
-        <v>7.536928107151115</v>
+        <v>13.39532334705636</v>
       </c>
       <c r="F8">
-        <v>63.58380621806228</v>
+        <v>66.18871196416561</v>
       </c>
       <c r="G8">
-        <v>98.29912794791223</v>
+        <v>91.54057454879062</v>
       </c>
       <c r="H8">
-        <v>25.02869931625125</v>
+        <v>29.13556723852036</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.293803878384511</v>
+        <v>12.36598242573298</v>
       </c>
       <c r="L8">
-        <v>4.849815610235412</v>
+        <v>9.300962192144571</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10.24322524383732</v>
+        <v>13.15296658096247</v>
       </c>
       <c r="D9">
-        <v>5.500639837960382</v>
+        <v>5.055722423427076</v>
       </c>
       <c r="E9">
-        <v>7.669261820218717</v>
+        <v>13.31621534131701</v>
       </c>
       <c r="F9">
-        <v>73.82514734235821</v>
+        <v>67.55880221309522</v>
       </c>
       <c r="G9">
-        <v>115.3664123185948</v>
+        <v>94.4246634736959</v>
       </c>
       <c r="H9">
-        <v>28.8395640834649</v>
+        <v>29.48876504272335</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.597795742928989</v>
+        <v>12.30560763148374</v>
       </c>
       <c r="L9">
-        <v>4.680005010199029</v>
+        <v>9.244118589551075</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>11.02574289949915</v>
+        <v>13.1818401774222</v>
       </c>
       <c r="D10">
-        <v>6.027893176660825</v>
+        <v>5.174948579168842</v>
       </c>
       <c r="E10">
-        <v>7.819330372070274</v>
+        <v>13.26850148064438</v>
       </c>
       <c r="F10">
-        <v>82.06446303850163</v>
+        <v>68.65511171832938</v>
       </c>
       <c r="G10">
-        <v>128.468819813595</v>
+        <v>96.64949959344</v>
       </c>
       <c r="H10">
-        <v>32.07918694945177</v>
+        <v>29.78845194623609</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.887680458850039</v>
+        <v>12.2723620644891</v>
       </c>
       <c r="L10">
-        <v>4.550741767375088</v>
+        <v>9.20623321114115</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>11.41043101072784</v>
+        <v>13.19841109087208</v>
       </c>
       <c r="D11">
-        <v>6.280680803325063</v>
+        <v>5.227881757013651</v>
       </c>
       <c r="E11">
-        <v>7.904075341814491</v>
+        <v>13.24906354478732</v>
       </c>
       <c r="F11">
-        <v>85.97488009120869</v>
+        <v>69.17200953778018</v>
       </c>
       <c r="G11">
-        <v>134.6784379540158</v>
+        <v>97.68094682909813</v>
       </c>
       <c r="H11">
-        <v>33.61659838653387</v>
+        <v>29.93331183983026</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.041050330661868</v>
+        <v>12.25967186736832</v>
       </c>
       <c r="L11">
-        <v>4.489093887784948</v>
+        <v>9.189826973245269</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>11.56179572718324</v>
+        <v>13.20518160696991</v>
       </c>
       <c r="D12">
-        <v>6.37939861158624</v>
+        <v>5.247734323332162</v>
       </c>
       <c r="E12">
-        <v>7.93919472547535</v>
+        <v>13.24202969478385</v>
       </c>
       <c r="F12">
-        <v>87.49347444330124</v>
+        <v>69.37023878154565</v>
       </c>
       <c r="G12">
-        <v>137.0887673926927</v>
+        <v>98.07399808551641</v>
       </c>
       <c r="H12">
-        <v>34.21366045246639</v>
+        <v>29.98937197065198</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.103169529219425</v>
+        <v>12.25521805012022</v>
       </c>
       <c r="L12">
-        <v>4.465089328264034</v>
+        <v>9.183732382461793</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>11.52890946514703</v>
+        <v>13.2037014018067</v>
       </c>
       <c r="D13">
-        <v>6.357980266251219</v>
+        <v>5.243467331644001</v>
       </c>
       <c r="E13">
-        <v>7.93148251571985</v>
+        <v>13.24353000889991</v>
       </c>
       <c r="F13">
-        <v>87.16442255257057</v>
+        <v>69.32743778010814</v>
       </c>
       <c r="G13">
-        <v>136.5665412958668</v>
+        <v>97.98924292881209</v>
       </c>
       <c r="H13">
-        <v>34.08428659858252</v>
+        <v>29.97724520575045</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.089590972606704</v>
+        <v>12.2561615900106</v>
       </c>
       <c r="L13">
-        <v>4.470293838996064</v>
+        <v>9.185039724830938</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>11.42275789039052</v>
+        <v>13.19895816903233</v>
       </c>
       <c r="D14">
-        <v>6.288733783314143</v>
+        <v>5.229518914718803</v>
       </c>
       <c r="E14">
-        <v>7.906899050581967</v>
+        <v>13.2484783098133</v>
       </c>
       <c r="F14">
-        <v>86.09894807682633</v>
+        <v>69.18826877130307</v>
       </c>
       <c r="G14">
-        <v>134.875382038192</v>
+        <v>97.71323582550517</v>
       </c>
       <c r="H14">
-        <v>33.66537737025544</v>
+        <v>29.93789992741315</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.046072788814694</v>
+        <v>12.25929839075901</v>
       </c>
       <c r="L14">
-        <v>4.487134119985637</v>
+        <v>9.189323206371029</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>11.35853841115382</v>
+        <v>13.19611736010354</v>
       </c>
       <c r="D15">
-        <v>6.246751571854468</v>
+        <v>5.220949959231278</v>
       </c>
       <c r="E15">
-        <v>7.892260109645727</v>
+        <v>13.25155188081934</v>
       </c>
       <c r="F15">
-        <v>85.45179339752551</v>
+        <v>69.10334443098397</v>
       </c>
       <c r="G15">
-        <v>133.8480510630447</v>
+        <v>97.54448499807039</v>
       </c>
       <c r="H15">
-        <v>33.41094068901473</v>
+        <v>29.91395602455483</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.019979012460212</v>
+        <v>12.26126562388254</v>
       </c>
       <c r="L15">
-        <v>4.497353849259206</v>
+        <v>9.191962313089464</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>11.00129699923304</v>
+        <v>13.18082649889564</v>
       </c>
       <c r="D16">
-        <v>6.011717834716868</v>
+        <v>5.171462639368317</v>
       </c>
       <c r="E16">
-        <v>7.814173565322748</v>
+        <v>13.26981749091238</v>
       </c>
       <c r="F16">
-        <v>81.81325467919403</v>
+        <v>68.6216866681157</v>
       </c>
       <c r="G16">
-        <v>128.0697444351145</v>
+        <v>96.58245435307131</v>
       </c>
       <c r="H16">
-        <v>31.98042237502052</v>
+        <v>29.77915485500474</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.87816151008349</v>
+        <v>12.27324051585295</v>
       </c>
       <c r="L16">
-        <v>4.554694447304121</v>
+        <v>9.207321976127785</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>10.79038641537851</v>
+        <v>13.1723272302077</v>
       </c>
       <c r="D17">
-        <v>5.8714932347795</v>
+        <v>5.140766536580003</v>
       </c>
       <c r="E17">
-        <v>7.770875784276103</v>
+        <v>13.28160415744337</v>
       </c>
       <c r="F17">
-        <v>79.63096582243357</v>
+        <v>68.3307758736418</v>
       </c>
       <c r="G17">
-        <v>124.6019607140597</v>
+        <v>95.99701092761076</v>
       </c>
       <c r="H17">
-        <v>31.12242700224341</v>
+        <v>29.69862881748112</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.797217800710454</v>
+        <v>12.28121123155868</v>
       </c>
       <c r="L17">
-        <v>4.588996781833068</v>
+        <v>9.216956015557567</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>10.67165390809743</v>
+        <v>13.16776204962487</v>
       </c>
       <c r="D18">
-        <v>5.791967156808052</v>
+        <v>5.122988527992419</v>
       </c>
       <c r="E18">
-        <v>7.747471633596844</v>
+        <v>13.28859689783854</v>
       </c>
       <c r="F18">
-        <v>78.38989084801051</v>
+        <v>68.16517070828479</v>
       </c>
       <c r="G18">
-        <v>122.6290038485876</v>
+        <v>95.66212064698635</v>
       </c>
       <c r="H18">
-        <v>30.63446803763093</v>
+        <v>29.6531167959368</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.752610017590983</v>
+        <v>12.28602471241932</v>
       </c>
       <c r="L18">
-        <v>4.608478473775804</v>
+        <v>9.222575254907655</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>10.63185977850553</v>
+        <v>13.16627184971428</v>
       </c>
       <c r="D19">
-        <v>5.765208379326281</v>
+        <v>5.11694832029606</v>
       </c>
       <c r="E19">
-        <v>7.73978922235418</v>
+        <v>13.29100113954185</v>
       </c>
       <c r="F19">
-        <v>77.97177425002781</v>
+        <v>68.10939855761877</v>
       </c>
       <c r="G19">
-        <v>121.9641736224774</v>
+        <v>95.54905851210937</v>
       </c>
       <c r="H19">
-        <v>30.4700720480013</v>
+        <v>29.63784599671751</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.737818930755537</v>
+        <v>12.28769374024933</v>
       </c>
       <c r="L19">
-        <v>4.615037951349962</v>
+        <v>9.224491257960455</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>10.81256247823997</v>
+        <v>13.17319851278442</v>
       </c>
       <c r="D20">
-        <v>5.88629719447233</v>
+        <v>5.144046893982062</v>
       </c>
       <c r="E20">
-        <v>7.775325825890395</v>
+        <v>13.28032735859436</v>
       </c>
       <c r="F20">
-        <v>79.86172975038241</v>
+        <v>68.36156678764937</v>
       </c>
       <c r="G20">
-        <v>124.9687420778234</v>
+        <v>96.05914412413227</v>
       </c>
       <c r="H20">
-        <v>31.21315612575521</v>
+        <v>29.70711784796438</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.805627160109428</v>
+        <v>12.28033902842985</v>
       </c>
       <c r="L20">
-        <v>4.585372381440971</v>
+        <v>9.215922390486037</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>11.4537661217635</v>
+        <v>13.20033791579092</v>
       </c>
       <c r="D21">
-        <v>6.308979940068496</v>
+        <v>5.233621151473041</v>
       </c>
       <c r="E21">
-        <v>7.914030812899171</v>
+        <v>13.24701599585174</v>
       </c>
       <c r="F21">
-        <v>86.41072459431885</v>
+        <v>69.22907947623965</v>
       </c>
       <c r="G21">
-        <v>135.3702747421079</v>
+        <v>97.7942414559444</v>
       </c>
       <c r="H21">
-        <v>33.78795683513214</v>
+        <v>29.94942407620647</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.058735526890644</v>
+        <v>12.25836747766041</v>
       </c>
       <c r="L21">
-        <v>4.482208242688217</v>
+        <v>9.188061846697062</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>11.90745418678248</v>
+        <v>13.22096340698393</v>
       </c>
       <c r="D22">
-        <v>6.603718429866105</v>
+        <v>5.291041576425811</v>
       </c>
       <c r="E22">
-        <v>8.022912305362526</v>
+        <v>13.22715077172116</v>
       </c>
       <c r="F22">
-        <v>90.92456405367534</v>
+        <v>69.81050981515375</v>
       </c>
       <c r="G22">
-        <v>142.5326977619085</v>
+        <v>98.94244608913321</v>
       </c>
       <c r="H22">
-        <v>35.56273044909577</v>
+        <v>30.11479618349566</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.248566891396905</v>
+        <v>12.24605850294754</v>
       </c>
       <c r="L22">
-        <v>4.410714312542182</v>
+        <v>9.17054126698886</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>11.66137920198975</v>
+        <v>13.20969057098997</v>
       </c>
       <c r="D23">
-        <v>6.444165665689034</v>
+        <v>5.260499294461621</v>
       </c>
       <c r="E23">
-        <v>7.962820761435975</v>
+        <v>13.23757856487296</v>
       </c>
       <c r="F23">
-        <v>88.48700272518218</v>
+        <v>69.49890823918574</v>
       </c>
       <c r="G23">
-        <v>138.6654055047028</v>
+        <v>98.32843190591927</v>
       </c>
       <c r="H23">
-        <v>34.60429298448709</v>
+        <v>30.02590027946237</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.144560951365209</v>
+        <v>12.25243981281</v>
       </c>
       <c r="L23">
-        <v>4.449364254016337</v>
+        <v>9.17982970983503</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>10.80252892729201</v>
+        <v>13.17280360569022</v>
       </c>
       <c r="D24">
-        <v>5.879601002524802</v>
+        <v>5.142564250242425</v>
       </c>
       <c r="E24">
-        <v>7.773309371171321</v>
+        <v>13.28090392528961</v>
       </c>
       <c r="F24">
-        <v>79.75736014116139</v>
+        <v>68.34764108755085</v>
       </c>
       <c r="G24">
-        <v>124.8028572425995</v>
+        <v>96.0310484210961</v>
       </c>
       <c r="H24">
-        <v>31.17212132218612</v>
+        <v>29.70327751531577</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.801819348283459</v>
+        <v>12.28073263205317</v>
       </c>
       <c r="L24">
-        <v>4.587011700835097</v>
+        <v>9.216389441562507</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.973422347430379</v>
+        <v>13.14536869356386</v>
       </c>
       <c r="D25">
-        <v>5.312763676056605</v>
+        <v>5.010692816027417</v>
       </c>
       <c r="E25">
-        <v>7.625468977728037</v>
+        <v>13.33579140500631</v>
       </c>
       <c r="F25">
-        <v>71.01384454360256</v>
+        <v>67.17197704623464</v>
       </c>
       <c r="G25">
-        <v>110.7077034729256</v>
+        <v>93.6246110138855</v>
       </c>
       <c r="H25">
-        <v>27.67692586823142</v>
+        <v>29.3860965097931</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.505655104902396</v>
+        <v>12.31999639875616</v>
       </c>
       <c r="L25">
-        <v>4.726262450130851</v>
+        <v>9.258810910984709</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_177/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.13570827151786</v>
+        <v>9.413886040318829</v>
       </c>
       <c r="D2">
-        <v>4.909754846414764</v>
+        <v>4.907583828673066</v>
       </c>
       <c r="E2">
-        <v>13.38319263054961</v>
+        <v>7.550361694658562</v>
       </c>
       <c r="F2">
-        <v>66.36719626318437</v>
+        <v>64.98007036835583</v>
       </c>
       <c r="G2">
-        <v>91.92550057054049</v>
+        <v>100.6439002833039</v>
       </c>
       <c r="H2">
-        <v>29.17965981741665</v>
+        <v>25.51813701990815</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.35636330501269</v>
+        <v>7.32984662605557</v>
       </c>
       <c r="L2">
-        <v>9.292654946415571</v>
+        <v>4.826415582346471</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13.13568159928616</v>
+        <v>9.057569039140841</v>
       </c>
       <c r="D3">
-        <v>4.839045006994406</v>
+        <v>4.633845191022821</v>
       </c>
       <c r="E3">
-        <v>13.41966388238335</v>
+        <v>7.515856033361842</v>
       </c>
       <c r="F3">
-        <v>65.86153012665204</v>
+        <v>60.93919722381305</v>
       </c>
       <c r="G3">
-        <v>90.82479694943703</v>
+        <v>93.83802596577712</v>
       </c>
       <c r="H3">
-        <v>29.05688509001493</v>
+        <v>24.10743562533192</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.38562875396487</v>
+        <v>7.2306951398026</v>
       </c>
       <c r="L3">
-        <v>9.317239672224838</v>
+        <v>4.894482998165909</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>13.13886024888697</v>
+        <v>8.848259652385138</v>
       </c>
       <c r="D4">
-        <v>4.79452684284883</v>
+        <v>4.464762506984108</v>
       </c>
       <c r="E4">
-        <v>13.44419776024427</v>
+        <v>7.501634515088481</v>
       </c>
       <c r="F4">
-        <v>65.5711721464409</v>
+        <v>58.46767457229942</v>
       </c>
       <c r="G4">
-        <v>90.17573754448107</v>
+        <v>89.64174717242076</v>
       </c>
       <c r="H4">
-        <v>28.99000105951731</v>
+        <v>23.25409030464419</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.40586554833595</v>
+        <v>7.178173799375349</v>
       </c>
       <c r="L4">
-        <v>9.333154588727014</v>
+        <v>4.936760823662093</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>13.14095568644042</v>
+        <v>8.765150781141552</v>
       </c>
       <c r="D5">
-        <v>4.77611377361212</v>
+        <v>4.395451029736344</v>
       </c>
       <c r="E5">
-        <v>13.45473318117157</v>
+        <v>7.49745213628374</v>
       </c>
       <c r="F5">
-        <v>65.45798041088217</v>
+        <v>57.46165899949014</v>
       </c>
       <c r="G5">
-        <v>89.91822218555492</v>
+        <v>87.92507792233069</v>
       </c>
       <c r="H5">
-        <v>28.96488851197993</v>
+        <v>22.90909464273144</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.41468085812786</v>
+        <v>7.158688462589599</v>
       </c>
       <c r="L5">
-        <v>9.339847152604168</v>
+        <v>4.954157740783674</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>13.14135185321533</v>
+        <v>8.751477929198396</v>
       </c>
       <c r="D6">
-        <v>4.773040062193575</v>
+        <v>4.383913442459691</v>
       </c>
       <c r="E6">
-        <v>13.45651503773448</v>
+        <v>7.49685141532533</v>
       </c>
       <c r="F6">
-        <v>65.43949682095412</v>
+        <v>57.29465586502871</v>
       </c>
       <c r="G6">
-        <v>89.8758905371086</v>
+        <v>87.63957897928657</v>
       </c>
       <c r="H6">
-        <v>28.96084815066814</v>
+        <v>22.85196476025668</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.41617893244471</v>
+        <v>7.155563888101843</v>
       </c>
       <c r="L6">
-        <v>9.340970984604349</v>
+        <v>4.957057864919994</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>13.13888527368342</v>
+        <v>8.847130184674201</v>
       </c>
       <c r="D7">
-        <v>4.794279609809278</v>
+        <v>4.463829579533591</v>
       </c>
       <c r="E7">
-        <v>13.44433766832111</v>
+        <v>7.50157174701996</v>
       </c>
       <c r="F7">
-        <v>65.56962473912996</v>
+        <v>58.4541036282495</v>
       </c>
       <c r="G7">
-        <v>90.17223601880026</v>
+        <v>89.61862470456329</v>
       </c>
       <c r="H7">
-        <v>28.98965369949078</v>
+        <v>23.2494269054994</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.40598213431083</v>
+        <v>7.177903472379807</v>
       </c>
       <c r="L7">
-        <v>9.333244007138218</v>
+        <v>4.936994707169498</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>13.13503406620736</v>
+        <v>9.288926572705165</v>
       </c>
       <c r="D8">
-        <v>4.885606090086728</v>
+        <v>4.813299370749049</v>
       </c>
       <c r="E8">
-        <v>13.39532334705636</v>
+        <v>7.536928107151201</v>
       </c>
       <c r="F8">
-        <v>66.18871196416561</v>
+        <v>63.58380621806238</v>
       </c>
       <c r="G8">
-        <v>91.54057454879062</v>
+        <v>98.29912794791251</v>
       </c>
       <c r="H8">
-        <v>29.13556723852036</v>
+        <v>25.02869931625126</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.36598242573298</v>
+        <v>7.293803878384482</v>
       </c>
       <c r="L8">
-        <v>9.300962192144571</v>
+        <v>4.849815610235415</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>13.15296658096247</v>
+        <v>10.24322524383722</v>
       </c>
       <c r="D9">
-        <v>5.055722423427076</v>
+        <v>5.500639837960511</v>
       </c>
       <c r="E9">
-        <v>13.31621534131701</v>
+        <v>7.669261820218678</v>
       </c>
       <c r="F9">
-        <v>67.55880221309522</v>
+        <v>73.82514734235876</v>
       </c>
       <c r="G9">
-        <v>94.4246634736959</v>
+        <v>115.3664123185958</v>
       </c>
       <c r="H9">
-        <v>29.48876504272335</v>
+        <v>28.83956408346512</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.30560763148374</v>
+        <v>7.597795742928942</v>
       </c>
       <c r="L9">
-        <v>9.244118589551075</v>
+        <v>4.68000501019901</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>13.1818401774222</v>
+        <v>11.02574289949916</v>
       </c>
       <c r="D10">
-        <v>5.174948579168842</v>
+        <v>6.027893176660836</v>
       </c>
       <c r="E10">
-        <v>13.26850148064438</v>
+        <v>7.81933037207026</v>
       </c>
       <c r="F10">
-        <v>68.65511171832938</v>
+        <v>82.06446303850169</v>
       </c>
       <c r="G10">
-        <v>96.64949959344</v>
+        <v>128.468819813595</v>
       </c>
       <c r="H10">
-        <v>29.78845194623609</v>
+        <v>32.07918694945177</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.2723620644891</v>
+        <v>7.887680458850034</v>
       </c>
       <c r="L10">
-        <v>9.20623321114115</v>
+        <v>4.550741767375087</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>13.19841109087208</v>
+        <v>11.41043101072792</v>
       </c>
       <c r="D11">
-        <v>5.227881757013651</v>
+        <v>6.280680803324993</v>
       </c>
       <c r="E11">
-        <v>13.24906354478732</v>
+        <v>7.904075341814535</v>
       </c>
       <c r="F11">
-        <v>69.17200953778018</v>
+        <v>85.97488009120903</v>
       </c>
       <c r="G11">
-        <v>97.68094682909813</v>
+        <v>134.6784379540164</v>
       </c>
       <c r="H11">
-        <v>29.93331183983026</v>
+        <v>33.61659838653402</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.25967186736832</v>
+        <v>8.041050330661877</v>
       </c>
       <c r="L11">
-        <v>9.189826973245269</v>
+        <v>4.489093887784914</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>13.20518160696991</v>
+        <v>11.56179572718321</v>
       </c>
       <c r="D12">
-        <v>5.247734323332162</v>
+        <v>6.379398611586137</v>
       </c>
       <c r="E12">
-        <v>13.24202969478385</v>
+        <v>7.939194725475398</v>
       </c>
       <c r="F12">
-        <v>69.37023878154565</v>
+        <v>87.4934744433009</v>
       </c>
       <c r="G12">
-        <v>98.07399808551641</v>
+        <v>137.0887673926921</v>
       </c>
       <c r="H12">
-        <v>29.98937197065198</v>
+        <v>34.21366045246629</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.25521805012022</v>
+        <v>8.103169529219452</v>
       </c>
       <c r="L12">
-        <v>9.183732382461793</v>
+        <v>4.465089328264042</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>13.2037014018067</v>
+        <v>11.52890946514686</v>
       </c>
       <c r="D13">
-        <v>5.243467331644001</v>
+        <v>6.357980266251214</v>
       </c>
       <c r="E13">
-        <v>13.24353000889991</v>
+        <v>7.931482515719898</v>
       </c>
       <c r="F13">
-        <v>69.32743778010814</v>
+        <v>87.16442255257016</v>
       </c>
       <c r="G13">
-        <v>97.98924292881209</v>
+        <v>136.5665412958662</v>
       </c>
       <c r="H13">
-        <v>29.97724520575045</v>
+        <v>34.08428659858231</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.2561615900106</v>
+        <v>8.089590972606715</v>
       </c>
       <c r="L13">
-        <v>9.185039724830938</v>
+        <v>4.470293838996095</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>13.19895816903233</v>
+        <v>11.42275789039058</v>
       </c>
       <c r="D14">
-        <v>5.229518914718803</v>
+        <v>6.288733783314202</v>
       </c>
       <c r="E14">
-        <v>13.2484783098133</v>
+        <v>7.906899050582005</v>
       </c>
       <c r="F14">
-        <v>69.18826877130307</v>
+        <v>86.09894807682602</v>
       </c>
       <c r="G14">
-        <v>97.71323582550517</v>
+        <v>134.8753820381916</v>
       </c>
       <c r="H14">
-        <v>29.93789992741315</v>
+        <v>33.66537737025534</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.25929839075901</v>
+        <v>8.04607278881471</v>
       </c>
       <c r="L14">
-        <v>9.189323206371029</v>
+        <v>4.487134119985654</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>13.19611736010354</v>
+        <v>11.35853841115375</v>
       </c>
       <c r="D15">
-        <v>5.220949959231278</v>
+        <v>6.246751571854486</v>
       </c>
       <c r="E15">
-        <v>13.25155188081934</v>
+        <v>7.892260109645751</v>
       </c>
       <c r="F15">
-        <v>69.10334443098397</v>
+        <v>85.45179339752535</v>
       </c>
       <c r="G15">
-        <v>97.54448499807039</v>
+        <v>133.8480510630445</v>
       </c>
       <c r="H15">
-        <v>29.91395602455483</v>
+        <v>33.41094068901468</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.26126562388254</v>
+        <v>8.019979012460219</v>
       </c>
       <c r="L15">
-        <v>9.191962313089464</v>
+        <v>4.497353849259289</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>13.18082649889564</v>
+        <v>11.00129699923309</v>
       </c>
       <c r="D16">
-        <v>5.171462639368317</v>
+        <v>6.011717834717024</v>
       </c>
       <c r="E16">
-        <v>13.26981749091238</v>
+        <v>7.814173565322678</v>
       </c>
       <c r="F16">
-        <v>68.6216866681157</v>
+        <v>81.81325467919397</v>
       </c>
       <c r="G16">
-        <v>96.58245435307131</v>
+        <v>128.0697444351144</v>
       </c>
       <c r="H16">
-        <v>29.77915485500474</v>
+        <v>31.98042237502052</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.27324051585295</v>
+        <v>7.878161510083443</v>
       </c>
       <c r="L16">
-        <v>9.207321976127785</v>
+        <v>4.554694447304108</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>13.1723272302077</v>
+        <v>10.79038641537849</v>
       </c>
       <c r="D17">
-        <v>5.140766536580003</v>
+        <v>5.871493234779435</v>
       </c>
       <c r="E17">
-        <v>13.28160415744337</v>
+        <v>7.770875784276085</v>
       </c>
       <c r="F17">
-        <v>68.3307758736418</v>
+        <v>79.63096582243354</v>
       </c>
       <c r="G17">
-        <v>95.99701092761076</v>
+        <v>124.6019607140596</v>
       </c>
       <c r="H17">
-        <v>29.69862881748112</v>
+        <v>31.12242700224339</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.28121123155868</v>
+        <v>7.797217800710437</v>
       </c>
       <c r="L17">
-        <v>9.216956015557567</v>
+        <v>4.588996781833079</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>13.16776204962487</v>
+        <v>10.6716539080975</v>
       </c>
       <c r="D18">
-        <v>5.122988527992419</v>
+        <v>5.791967156808042</v>
       </c>
       <c r="E18">
-        <v>13.28859689783854</v>
+        <v>7.747471633596809</v>
       </c>
       <c r="F18">
-        <v>68.16517070828479</v>
+        <v>78.38989084801101</v>
       </c>
       <c r="G18">
-        <v>95.66212064698635</v>
+        <v>122.6290038485884</v>
       </c>
       <c r="H18">
-        <v>29.6531167959368</v>
+        <v>30.63446803763113</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.28602471241932</v>
+        <v>7.752610017590987</v>
       </c>
       <c r="L18">
-        <v>9.222575254907655</v>
+        <v>4.608478473775691</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>13.16627184971428</v>
+        <v>10.6318597785056</v>
       </c>
       <c r="D19">
-        <v>5.11694832029606</v>
+        <v>5.76520837932627</v>
       </c>
       <c r="E19">
-        <v>13.29100113954185</v>
+        <v>7.739789222354204</v>
       </c>
       <c r="F19">
-        <v>68.10939855761877</v>
+        <v>77.97177425002782</v>
       </c>
       <c r="G19">
-        <v>95.54905851210937</v>
+        <v>121.9641736224774</v>
       </c>
       <c r="H19">
-        <v>29.63784599671751</v>
+        <v>30.47007204800131</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.28769374024933</v>
+        <v>7.737818930755511</v>
       </c>
       <c r="L19">
-        <v>9.224491257960455</v>
+        <v>4.615037951350049</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>13.17319851278442</v>
+        <v>10.81256247823995</v>
       </c>
       <c r="D20">
-        <v>5.144046893982062</v>
+        <v>5.886297194472338</v>
       </c>
       <c r="E20">
-        <v>13.28032735859436</v>
+        <v>7.775325825890331</v>
       </c>
       <c r="F20">
-        <v>68.36156678764937</v>
+        <v>79.86172975038261</v>
       </c>
       <c r="G20">
-        <v>96.05914412413227</v>
+        <v>124.9687420778236</v>
       </c>
       <c r="H20">
-        <v>29.70711784796438</v>
+        <v>31.21315612575531</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.28033902842985</v>
+        <v>7.805627160109416</v>
       </c>
       <c r="L20">
-        <v>9.215922390486037</v>
+        <v>4.585372381440912</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>13.20033791579092</v>
+        <v>11.45376612176353</v>
       </c>
       <c r="D21">
-        <v>5.233621151473041</v>
+        <v>6.30897994006849</v>
       </c>
       <c r="E21">
-        <v>13.24701599585174</v>
+        <v>7.914030812899115</v>
       </c>
       <c r="F21">
-        <v>69.22907947623965</v>
+        <v>86.41072459431925</v>
       </c>
       <c r="G21">
-        <v>97.7942414559444</v>
+        <v>135.3702747421085</v>
       </c>
       <c r="H21">
-        <v>29.94942407620647</v>
+        <v>33.7879568351323</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.25836747766041</v>
+        <v>8.058735526890599</v>
       </c>
       <c r="L21">
-        <v>9.188061846697062</v>
+        <v>4.482208242688162</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>13.22096340698393</v>
+        <v>11.90745418678253</v>
       </c>
       <c r="D22">
-        <v>5.291041576425811</v>
+        <v>6.603718429865933</v>
       </c>
       <c r="E22">
-        <v>13.22715077172116</v>
+        <v>8.02291230536253</v>
       </c>
       <c r="F22">
-        <v>69.81050981515375</v>
+        <v>90.9245640536753</v>
       </c>
       <c r="G22">
-        <v>98.94244608913321</v>
+        <v>142.5326977619083</v>
       </c>
       <c r="H22">
-        <v>30.11479618349566</v>
+        <v>35.56273044909577</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.24605850294754</v>
+        <v>8.248566891396909</v>
       </c>
       <c r="L22">
-        <v>9.17054126698886</v>
+        <v>4.410714312542154</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>13.20969057098997</v>
+        <v>11.66137920198972</v>
       </c>
       <c r="D23">
-        <v>5.260499294461621</v>
+        <v>6.444165665688952</v>
       </c>
       <c r="E23">
-        <v>13.23757856487296</v>
+        <v>7.962820761435927</v>
       </c>
       <c r="F23">
-        <v>69.49890823918574</v>
+        <v>88.487002725183</v>
       </c>
       <c r="G23">
-        <v>98.32843190591927</v>
+        <v>138.6654055047042</v>
       </c>
       <c r="H23">
-        <v>30.02590027946237</v>
+        <v>34.60429298448746</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.25243981281</v>
+        <v>8.144560951365214</v>
       </c>
       <c r="L23">
-        <v>9.17982970983503</v>
+        <v>4.449364254016375</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>13.17280360569022</v>
+        <v>10.80252892729193</v>
       </c>
       <c r="D24">
-        <v>5.142564250242425</v>
+        <v>5.879601002524914</v>
       </c>
       <c r="E24">
-        <v>13.28090392528961</v>
+        <v>7.773309371171311</v>
       </c>
       <c r="F24">
-        <v>68.34764108755085</v>
+        <v>79.75736014116141</v>
       </c>
       <c r="G24">
-        <v>96.0310484210961</v>
+        <v>124.8028572425996</v>
       </c>
       <c r="H24">
-        <v>29.70327751531577</v>
+        <v>31.17212132218614</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.28073263205317</v>
+        <v>7.801819348283431</v>
       </c>
       <c r="L24">
-        <v>9.216389441562507</v>
+        <v>4.587011700835078</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>13.14536869356386</v>
+        <v>9.973422347430281</v>
       </c>
       <c r="D25">
-        <v>5.010692816027417</v>
+        <v>5.312763676056623</v>
       </c>
       <c r="E25">
-        <v>13.33579140500631</v>
+        <v>7.62546897772806</v>
       </c>
       <c r="F25">
-        <v>67.17197704623464</v>
+        <v>71.01384454360247</v>
       </c>
       <c r="G25">
-        <v>93.6246110138855</v>
+        <v>110.7077034729255</v>
       </c>
       <c r="H25">
-        <v>29.3860965097931</v>
+        <v>27.67692586823138</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.31999639875616</v>
+        <v>7.505655104902403</v>
       </c>
       <c r="L25">
-        <v>9.258810910984709</v>
+        <v>4.72626245013086</v>
       </c>
       <c r="O25">
         <v>0</v>
